--- a/Test_Cases_AZ.xlsx
+++ b/Test_Cases_AZ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\test-keys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>UZ-05</t>
   </si>
   <si>
-    <t>Orta</t>
-  </si>
-  <si>
     <t>Aşağı</t>
   </si>
   <si>
@@ -75,12 +72,6 @@
     <t>E-poçt sahəsinə düzgün məlumatları daxil edin</t>
   </si>
   <si>
-    <t>Parol sahəsinə 8 simvol daxil edin</t>
-  </si>
-  <si>
-    <t>Soyad sahəsinə düzgün olmayan məlumatları daxil edin</t>
-  </si>
-  <si>
     <t>Təklif müqaviləsini qəbul edirəm sahəsini işarələyin</t>
   </si>
   <si>
@@ -93,15 +84,6 @@
     <t>https://booking.uz.gov.ua/ru/registration/</t>
   </si>
   <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>Test1234</t>
-  </si>
-  <si>
-    <t>1234!№;</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -114,24 +96,9 @@
     <t>Qeydiyyat forması səhifəsi açıldı</t>
   </si>
   <si>
-    <t>Sahəyə məlumat daxil edin mesajı görünməlidir</t>
-  </si>
-  <si>
-    <t>E-poçt sahəsində daxil edilmiş məlumatlar görünür</t>
-  </si>
-  <si>
-    <t>Parol sahəsində 8 nöqtə görünür</t>
-  </si>
-  <si>
-    <t>Soyad sahəsində '1234!№;' görünür</t>
-  </si>
-  <si>
     <t>Təklif müqaviləsini qəbul edirəm sahəsi işarələnib</t>
   </si>
   <si>
-    <t>Soyad sahəsində düzgün olmayan məlumatlar daxil edilib mesajı görünməlidir</t>
-  </si>
-  <si>
     <t>E-poçt sahəsində Test Məlumatları görünür</t>
   </si>
   <si>
@@ -144,25 +111,73 @@
     <t>Düzgün məlumat daxil edin səhv mesajı görünür</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t xml:space="preserve">Status </t>
   </si>
   <si>
-    <t>https://anargasimov.42web.io/#contant</t>
-  </si>
-  <si>
     <t>Əlaqə forması səhifəsi açıldı</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>Göndər düyməsini klikləyin</t>
+    <t>https://anargasimov.42web.io</t>
+  </si>
+  <si>
+    <t>Əlaqə düyməsini klikləyin</t>
+  </si>
+  <si>
+    <t>Əlaqə səhifəsinə yönləndirməlidir</t>
+  </si>
+  <si>
+    <t>https://anargaimov.42web.io/#contact</t>
+  </si>
+  <si>
+    <t>https://anargasimov.42web.io/#contact</t>
+  </si>
+  <si>
+    <t>Ad xanasına hərflər qeyd etmək</t>
+  </si>
+  <si>
+    <t>anar</t>
+  </si>
+  <si>
+    <t>həflər görünür</t>
+  </si>
+  <si>
+    <t>email xanasına email qeyd etmək</t>
+  </si>
+  <si>
+    <t>Test1234@gmail.com</t>
+  </si>
+  <si>
+    <t>email sahəsində qeyd olunan email görünür</t>
+  </si>
+  <si>
+    <t>telefon nömrəsi xanasına nömrə qeyd etmək</t>
+  </si>
+  <si>
+    <t>nömrə sahəsində nömrə görünür</t>
+  </si>
+  <si>
+    <t>mesaj xanasına sözlər yazmaq</t>
+  </si>
+  <si>
+    <t>salam necesiz</t>
+  </si>
+  <si>
+    <t>qeyd olunan mesaj xanasında görünür</t>
+  </si>
+  <si>
+    <t>Göndər düyməsini klikləmək</t>
+  </si>
+  <si>
+    <t>məlumatlar uğurla göndərildi</t>
+  </si>
+  <si>
+    <t>yüksək</t>
   </si>
 </sst>
 </file>
@@ -201,18 +216,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -252,14 +261,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -568,7 +576,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,8 +585,8 @@
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.77734375" customWidth="1"/>
-    <col min="6" max="6" width="42.88671875" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" customWidth="1"/>
     <col min="7" max="7" width="40.5546875" customWidth="1"/>
     <col min="8" max="8" width="8.21875" customWidth="1"/>
   </cols>
@@ -606,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -614,25 +622,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -640,13 +648,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -654,25 +665,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -680,16 +691,16 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -697,16 +708,16 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -714,16 +725,16 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>557019050</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -731,16 +742,16 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -748,13 +759,13 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -762,25 +773,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -788,16 +799,16 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -805,16 +816,16 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -822,16 +833,16 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -839,13 +850,13 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -853,25 +864,27 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="contant"/>
-    <hyperlink ref="F2" r:id="rId2" location="contant"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3" location="contact"/>
+    <hyperlink ref="F4" r:id="rId4" location="contact"/>
     <hyperlink ref="E10" r:id="rId5"/>
     <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId7" location="contact"/>
+    <hyperlink ref="F6" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>